--- a/Finalize logic tree/Toyota_Camry_Misfire.xlsx
+++ b/Finalize logic tree/Toyota_Camry_Misfire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60B745F-77A4-4287-B178-EFC2B023BD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FFF5C0-A420-4AB3-BF1E-E43FC8946ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{809827ED-8396-4647-930B-0FBA8AB47F3D}"/>
   </bookViews>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A3EFF1-62A4-4745-A69B-A1578B7FE212}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
